--- a/SpotifyTopSongs_1000.xlsx
+++ b/SpotifyTopSongs_1000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cezar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/c_cranganu_inf23_stud_bbbaden_ch/Documents/BBB/IAP/Modul 259/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE4926A-CC29-4E9E-8085-3803D91B2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{9DE4926A-CC29-4E9E-8085-3803D91B2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDF907F-9971-40B2-AC13-6411D03A6E0D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6651,11 +6651,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" workbookViewId="0">
-      <selection activeCell="X1001" sqref="X1001"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.36328125" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.90625" customWidth="1"/>
+    <col min="13" max="13" width="24.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/SpotifyTopSongs_1000.xlsx
+++ b/SpotifyTopSongs_1000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/c_cranganu_inf23_stud_bbbaden_ch/Documents/BBB/IAP/Modul 259/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbbaden-my.sharepoint.com/personal/c_cranganu_inf23_stud_bbbaden_ch/Documents/BBB/IAP/Modul 259/LB_259_Cezar-Cranganu-Cretu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{9DE4926A-CC29-4E9E-8085-3803D91B2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADDF907F-9971-40B2-AC13-6411D03A6E0D}"/>
@@ -6360,6 +6360,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6652,7 +6656,7 @@
   <dimension ref="A1:Y1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
